--- a/backend/output/M9MEX_M9MEX-20260204-0001.xlsx
+++ b/backend/output/M9MEX_M9MEX-20260204-0001.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="M9MEX" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
   <si>
     <t xml:space="preserve">CFE Distribución
 Centro Oriente</t>
@@ -32,40 +35,52 @@
 INSTALACIÓN-CAMBIOS-RETIROS</t>
   </si>
   <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>ORDEN ATENDIDA:</t>
+  </si>
+  <si>
+    <t>( X ) INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>(   ) CAMBIO</t>
+  </si>
+  <si>
+    <t>(   ) RETIRO</t>
+  </si>
+  <si>
+    <t>(   ) MODIFICACIÓN</t>
+  </si>
+  <si>
+    <t>ORDEN:</t>
+  </si>
+  <si>
+    <t>RPU:</t>
+  </si>
+  <si>
+    <t>USUARIO:</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>DOMICILIO:</t>
+  </si>
+  <si>
+    <t>Test Address</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES:</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fecha: 2026-02-04</t>
-  </si>
-  <si>
-    <t>ORDEN ATENDIDA:</t>
-  </si>
-  <si>
-    <t>( X ) INSTALACIÓN</t>
-  </si>
-  <si>
-    <t>(   ) CAMBIO</t>
-  </si>
-  <si>
-    <t>(   ) RETIRO</t>
-  </si>
-  <si>
-    <t>(   ) MODIFICACIÓN</t>
-  </si>
-  <si>
-    <t>USUARIO:</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>DOMICILIO:</t>
-  </si>
-  <si>
-    <t>Test Address</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES:</t>
+    <t>GEOREFERENCIAS:</t>
   </si>
   <si>
     <t>S.E. CONSUMIDOR:</t>
@@ -80,16 +95,16 @@
     <t>KW'S</t>
   </si>
   <si>
-    <t>VOLTAJE PRIMARIO:</t>
-  </si>
-  <si>
-    <t>VOLTAJE SECUNDARIO:</t>
-  </si>
-  <si>
-    <t>TARIFA:</t>
-  </si>
-  <si>
-    <t>SUCURSAL O AGENCIA:</t>
+    <t>VOLTAJE PRIM.:</t>
+  </si>
+  <si>
+    <t>VOLTAJE SEC.:</t>
+  </si>
+  <si>
+    <t>AGENCIA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARIFA: </t>
   </si>
   <si>
     <t>MEDICIÓN EN:</t>
@@ -174,7 +189,7 @@
     <t>DEMANDA</t>
   </si>
   <si>
-    <t>(   ) INDIC. (   ) DIR.</t>
+    <t>(   ) INDIC.  (   ) DIR.</t>
   </si>
   <si>
     <t>KW PERIODO</t>
@@ -183,10 +198,10 @@
     <t>ESCALA</t>
   </si>
   <si>
-    <t>SELLOS ENCONTRADOS</t>
-  </si>
-  <si>
-    <t>SELLOS DEJADOS</t>
+    <t>SELLOS ENCONTRADO</t>
+  </si>
+  <si>
+    <t>SELLOS DEJADO</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE Y FIRMA R.P.E.
@@ -231,7 +246,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="7"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -277,37 +292,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +678,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
@@ -672,7 +707,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -690,78 +725,54 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5"/>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5"/>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -770,619 +781,634 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>51</v>
+      <c r="A33" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
+      <c r="A37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="B37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="48">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
@@ -1397,21 +1423,23 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>